--- a/fileValidation/Badan Usaha - Positif.xlsx
+++ b/fileValidation/Badan Usaha - Positif.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9218" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11118" uniqueCount="1100">
   <si>
     <t>TC-Code</t>
   </si>
@@ -3379,6 +3379,87 @@
   </si>
   <si>
     <t>Rp1.100.000,00</t>
+  </si>
+  <si>
+    <t>L000001ZMFU211112</t>
+  </si>
+  <si>
+    <t>PT OtoCORP NZVT211112</t>
+  </si>
+  <si>
+    <t>05/03/2023 21:11:29</t>
+  </si>
+  <si>
+    <t>1151715815411118</t>
+  </si>
+  <si>
+    <t>27.311.113.1-812.117</t>
+  </si>
+  <si>
+    <t>L000001CTOX211112</t>
+  </si>
+  <si>
+    <t>PT OtoCORP SQLL211112</t>
+  </si>
+  <si>
+    <t>05/03/2023 21:25:49</t>
+  </si>
+  <si>
+    <t>Rp 1.400.000,00</t>
+  </si>
+  <si>
+    <t>Rp1.400.000,00</t>
+  </si>
+  <si>
+    <t>161197617822112</t>
+  </si>
+  <si>
+    <t>06-Mar-2023</t>
+  </si>
+  <si>
+    <t>L0000016XSX112129</t>
+  </si>
+  <si>
+    <t>PT OtoCORP SHVG112129</t>
+  </si>
+  <si>
+    <t>06/03/2023 13:38:31</t>
+  </si>
+  <si>
+    <t>1549459659339125</t>
+  </si>
+  <si>
+    <t>12.218.747.4-191.437</t>
+  </si>
+  <si>
+    <t>L000001AOQH112129</t>
+  </si>
+  <si>
+    <t>PT OtoCORP GMZI112129</t>
+  </si>
+  <si>
+    <t>06/03/2023 14:02:59</t>
+  </si>
+  <si>
+    <t>06/03/2023</t>
+  </si>
+  <si>
+    <t>342714922153831</t>
+  </si>
+  <si>
+    <t>L000001JUF5143523</t>
+  </si>
+  <si>
+    <t>PT OtoCORP TMCT143523</t>
+  </si>
+  <si>
+    <t>06/03/2023 14:53:28</t>
+  </si>
+  <si>
+    <t>115122649473911</t>
+  </si>
+  <si>
+    <t>29/01/2023</t>
   </si>
 </sst>
 </file>
@@ -3889,7 +3970,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5632">
+  <cellXfs count="7152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4557,6 +4638,3046 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="true"/>
@@ -17850,7 +20971,7 @@
       </c>
       <c r="E1" s="153" t="n">
         <f>COUNTIF(J:J,"Passed")</f>
-        <v>41.0</v>
+        <v>42.0</v>
       </c>
       <c r="F1" s="154" t="s">
         <v>16</v>
@@ -17938,20 +21059,20 @@
       <c r="F3" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s" s="2754">
+      <c r="G3" t="s" s="6102">
         <v>796</v>
       </c>
-      <c r="H3" t="s" s="2754">
-        <v>935</v>
-      </c>
-      <c r="I3" t="s" s="2754">
+      <c r="H3" t="s" s="6102">
+        <v>1084</v>
+      </c>
+      <c r="I3" t="s" s="6102">
         <v>715</v>
       </c>
-      <c r="J3" t="s" s="2754">
+      <c r="J3" t="s" s="6102">
         <v>716</v>
       </c>
-      <c r="K3" t="s" s="2754">
-        <v>717</v>
+      <c r="K3" t="s" s="6102">
+        <v>973</v>
       </c>
       <c r="L3" s="203"/>
       <c r="M3" s="149"/>
@@ -17976,20 +21097,20 @@
       <c r="F4" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s" s="2758">
+      <c r="G4" t="s" s="6270">
         <v>796</v>
       </c>
-      <c r="H4" t="s" s="2758">
-        <v>935</v>
-      </c>
-      <c r="I4" t="s" s="2758">
+      <c r="H4" t="s" s="6270">
+        <v>1084</v>
+      </c>
+      <c r="I4" t="s" s="6270">
         <v>715</v>
       </c>
-      <c r="J4" t="s" s="2758">
+      <c r="J4" t="s" s="6270">
         <v>716</v>
       </c>
-      <c r="K4" t="s" s="2758">
-        <v>967</v>
+      <c r="K4" t="s" s="6270">
+        <v>722</v>
       </c>
       <c r="L4" s="203"/>
       <c r="M4" s="149"/>
@@ -18014,20 +21135,20 @@
       <c r="F5" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s" s="2762">
+      <c r="G5" t="s" s="6274">
         <v>796</v>
       </c>
-      <c r="H5" t="s" s="2762">
-        <v>935</v>
-      </c>
-      <c r="I5" t="s" s="2762">
+      <c r="H5" t="s" s="6274">
+        <v>1084</v>
+      </c>
+      <c r="I5" t="s" s="6274">
         <v>715</v>
       </c>
-      <c r="J5" t="s" s="2762">
+      <c r="J5" t="s" s="6274">
         <v>716</v>
       </c>
-      <c r="K5" t="s" s="2762">
-        <v>968</v>
+      <c r="K5" t="s" s="6274">
+        <v>717</v>
       </c>
       <c r="L5" s="203"/>
       <c r="M5" s="149"/>
@@ -18052,20 +21173,20 @@
       <c r="F6" s="195" t="s">
         <v>41</v>
       </c>
-      <c r="G6" t="s" s="2766">
+      <c r="G6" t="s" s="6278">
         <v>796</v>
       </c>
-      <c r="H6" t="s" s="2766">
-        <v>935</v>
-      </c>
-      <c r="I6" t="s" s="2766">
+      <c r="H6" t="s" s="6278">
+        <v>1084</v>
+      </c>
+      <c r="I6" t="s" s="6278">
         <v>715</v>
       </c>
-      <c r="J6" t="s" s="2766">
+      <c r="J6" t="s" s="6278">
         <v>716</v>
       </c>
-      <c r="K6" t="s" s="2766">
-        <v>797</v>
+      <c r="K6" t="s" s="6278">
+        <v>1090</v>
       </c>
       <c r="L6" s="203"/>
       <c r="M6" s="149"/>
@@ -18090,20 +21211,20 @@
       <c r="F7" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="G7" t="s" s="2770">
+      <c r="G7" t="s" s="6282">
         <v>796</v>
       </c>
-      <c r="H7" t="s" s="2770">
-        <v>935</v>
-      </c>
-      <c r="I7" t="s" s="2770">
+      <c r="H7" t="s" s="6282">
+        <v>1084</v>
+      </c>
+      <c r="I7" t="s" s="6282">
         <v>715</v>
       </c>
-      <c r="J7" t="s" s="2770">
+      <c r="J7" t="s" s="6282">
         <v>716</v>
       </c>
-      <c r="K7" t="s" s="2770">
-        <v>969</v>
+      <c r="K7" t="s" s="6282">
+        <v>1091</v>
       </c>
       <c r="L7" s="203"/>
       <c r="M7" s="149"/>
@@ -18128,20 +21249,20 @@
       <c r="F8" s="195" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s" s="2774">
+      <c r="G8" t="s" s="6286">
         <v>796</v>
       </c>
-      <c r="H8" t="s" s="2774">
-        <v>935</v>
-      </c>
-      <c r="I8" t="s" s="2774">
+      <c r="H8" t="s" s="6286">
+        <v>1084</v>
+      </c>
+      <c r="I8" t="s" s="6286">
         <v>715</v>
       </c>
-      <c r="J8" t="s" s="2774">
+      <c r="J8" t="s" s="6286">
         <v>716</v>
       </c>
-      <c r="K8" t="s" s="2774">
-        <v>919</v>
+      <c r="K8" t="s" s="6286">
+        <v>797</v>
       </c>
       <c r="L8" s="203"/>
       <c r="M8" s="149"/>
@@ -18166,20 +21287,20 @@
       <c r="F9" s="195" t="s">
         <v>47</v>
       </c>
-      <c r="G9" t="s" s="2778">
+      <c r="G9" t="s" s="6290">
         <v>796</v>
       </c>
-      <c r="H9" t="s" s="2778">
-        <v>935</v>
-      </c>
-      <c r="I9" t="s" s="2778">
+      <c r="H9" t="s" s="6290">
+        <v>1084</v>
+      </c>
+      <c r="I9" t="s" s="6290">
         <v>715</v>
       </c>
-      <c r="J9" t="s" s="2778">
+      <c r="J9" t="s" s="6290">
         <v>716</v>
       </c>
-      <c r="K9" t="s" s="2778">
-        <v>718</v>
+      <c r="K9" t="s" s="6290">
+        <v>1092</v>
       </c>
       <c r="L9" s="203"/>
       <c r="M9" s="149"/>
@@ -18204,20 +21325,20 @@
       <c r="F10" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="G10" t="s" s="2782">
+      <c r="G10" t="s" s="6294">
         <v>796</v>
       </c>
-      <c r="H10" t="s" s="2782">
-        <v>935</v>
-      </c>
-      <c r="I10" t="s" s="2782">
+      <c r="H10" t="s" s="6294">
+        <v>1084</v>
+      </c>
+      <c r="I10" t="s" s="6294">
         <v>715</v>
       </c>
-      <c r="J10" t="s" s="2782">
+      <c r="J10" t="s" s="6294">
         <v>716</v>
       </c>
-      <c r="K10" t="s" s="2782">
-        <v>797</v>
+      <c r="K10" t="s" s="6294">
+        <v>1071</v>
       </c>
       <c r="L10" s="203"/>
       <c r="M10" s="149"/>
@@ -18242,20 +21363,20 @@
       <c r="F11" s="199" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s" s="2786">
+      <c r="G11" t="s" s="6298">
         <v>796</v>
       </c>
-      <c r="H11" t="s" s="2786">
-        <v>935</v>
-      </c>
-      <c r="I11" t="s" s="2786">
+      <c r="H11" t="s" s="6298">
+        <v>1084</v>
+      </c>
+      <c r="I11" t="s" s="6298">
         <v>715</v>
       </c>
-      <c r="J11" t="s" s="2786">
+      <c r="J11" t="s" s="6298">
         <v>716</v>
       </c>
-      <c r="K11" t="s" s="2786">
-        <v>968</v>
+      <c r="K11" t="s" s="6298">
+        <v>718</v>
       </c>
       <c r="L11" s="203"/>
       <c r="M11" s="149"/>
@@ -18280,20 +21401,20 @@
       <c r="F12" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="G12" t="s" s="2790">
+      <c r="G12" t="s" s="6302">
         <v>796</v>
       </c>
-      <c r="H12" t="s" s="2790">
-        <v>935</v>
-      </c>
-      <c r="I12" t="s" s="2790">
+      <c r="H12" t="s" s="6302">
+        <v>1084</v>
+      </c>
+      <c r="I12" t="s" s="6302">
         <v>715</v>
       </c>
-      <c r="J12" t="s" s="2790">
+      <c r="J12" t="s" s="6302">
         <v>716</v>
       </c>
-      <c r="K12" t="s" s="2790">
-        <v>886</v>
+      <c r="K12" t="s" s="6302">
+        <v>797</v>
       </c>
       <c r="L12" s="203"/>
       <c r="M12" s="149"/>
@@ -18318,20 +21439,20 @@
       <c r="F13" s="199" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s" s="2794">
+      <c r="G13" t="s" s="6306">
         <v>796</v>
       </c>
-      <c r="H13" t="s" s="2794">
-        <v>935</v>
-      </c>
-      <c r="I13" t="s" s="2794">
+      <c r="H13" t="s" s="6306">
+        <v>1084</v>
+      </c>
+      <c r="I13" t="s" s="6306">
         <v>715</v>
       </c>
-      <c r="J13" t="s" s="2794">
+      <c r="J13" t="s" s="6306">
         <v>716</v>
       </c>
-      <c r="K13" t="s" s="2794">
-        <v>967</v>
+      <c r="K13" t="s" s="6306">
+        <v>1091</v>
       </c>
       <c r="L13" s="203"/>
       <c r="M13" s="149"/>
@@ -18356,20 +21477,20 @@
       <c r="F14" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="G14" t="s" s="2798">
+      <c r="G14" t="s" s="6310">
         <v>796</v>
       </c>
-      <c r="H14" t="s" s="2798">
-        <v>935</v>
-      </c>
-      <c r="I14" t="s" s="2798">
+      <c r="H14" t="s" s="6310">
+        <v>1084</v>
+      </c>
+      <c r="I14" t="s" s="6310">
         <v>715</v>
       </c>
-      <c r="J14" t="s" s="2798">
+      <c r="J14" t="s" s="6310">
         <v>716</v>
       </c>
-      <c r="K14" t="s" s="2798">
-        <v>969</v>
+      <c r="K14" t="s" s="6310">
+        <v>722</v>
       </c>
       <c r="L14" s="203"/>
       <c r="M14" s="149"/>
@@ -18394,20 +21515,20 @@
       <c r="F15" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s" s="2802">
+      <c r="G15" t="s" s="6314">
         <v>796</v>
       </c>
-      <c r="H15" t="s" s="2802">
-        <v>935</v>
-      </c>
-      <c r="I15" t="s" s="2802">
+      <c r="H15" t="s" s="6314">
+        <v>1084</v>
+      </c>
+      <c r="I15" t="s" s="6314">
         <v>715</v>
       </c>
-      <c r="J15" t="s" s="2802">
+      <c r="J15" t="s" s="6314">
         <v>716</v>
       </c>
-      <c r="K15" t="s" s="2802">
-        <v>719</v>
+      <c r="K15" t="s" s="6314">
+        <v>1090</v>
       </c>
       <c r="L15" s="203"/>
       <c r="M15" s="149"/>
@@ -18432,20 +21553,20 @@
       <c r="F16" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="G16" t="s" s="2806">
+      <c r="G16" t="s" s="6318">
         <v>796</v>
       </c>
-      <c r="H16" t="s" s="2806">
-        <v>935</v>
-      </c>
-      <c r="I16" t="s" s="2806">
+      <c r="H16" t="s" s="6318">
+        <v>1084</v>
+      </c>
+      <c r="I16" t="s" s="6318">
         <v>715</v>
       </c>
-      <c r="J16" t="s" s="2806">
+      <c r="J16" t="s" s="6318">
         <v>716</v>
       </c>
-      <c r="K16" t="s" s="2806">
-        <v>919</v>
+      <c r="K16" t="s" s="6318">
+        <v>1092</v>
       </c>
       <c r="L16" s="203"/>
       <c r="M16" s="149"/>
@@ -18470,20 +21591,20 @@
       <c r="F17" s="199" t="s">
         <v>61</v>
       </c>
-      <c r="G17" t="s" s="2810">
+      <c r="G17" t="s" s="6322">
         <v>796</v>
       </c>
-      <c r="H17" t="s" s="2810">
-        <v>935</v>
-      </c>
-      <c r="I17" t="s" s="2810">
+      <c r="H17" t="s" s="6322">
+        <v>1084</v>
+      </c>
+      <c r="I17" t="s" s="6322">
         <v>715</v>
       </c>
-      <c r="J17" t="s" s="2810">
+      <c r="J17" t="s" s="6322">
         <v>716</v>
       </c>
-      <c r="K17" t="s" s="2810">
-        <v>720</v>
+      <c r="K17" t="s" s="6322">
+        <v>719</v>
       </c>
       <c r="L17" s="203"/>
       <c r="M17" s="149"/>
@@ -18508,20 +21629,20 @@
       <c r="F18" s="199" t="s">
         <v>47</v>
       </c>
-      <c r="G18" t="s" s="2814">
+      <c r="G18" t="s" s="6326">
         <v>796</v>
       </c>
-      <c r="H18" t="s" s="2814">
-        <v>935</v>
-      </c>
-      <c r="I18" t="s" s="2814">
+      <c r="H18" t="s" s="6326">
+        <v>1084</v>
+      </c>
+      <c r="I18" t="s" s="6326">
         <v>715</v>
       </c>
-      <c r="J18" t="s" s="2814">
+      <c r="J18" t="s" s="6326">
         <v>716</v>
       </c>
-      <c r="K18" t="s" s="2814">
-        <v>718</v>
+      <c r="K18" t="s" s="6326">
+        <v>1072</v>
       </c>
       <c r="L18" s="203"/>
       <c r="M18" s="149"/>
@@ -18546,20 +21667,20 @@
       <c r="F19" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="G19" t="s" s="2818">
+      <c r="G19" t="s" s="6330">
         <v>796</v>
       </c>
-      <c r="H19" t="s" s="2818">
-        <v>935</v>
-      </c>
-      <c r="I19" t="s" s="2818">
+      <c r="H19" t="s" s="6330">
+        <v>1084</v>
+      </c>
+      <c r="I19" t="s" s="6330">
         <v>715</v>
       </c>
-      <c r="J19" t="s" s="2818">
+      <c r="J19" t="s" s="6330">
         <v>716</v>
       </c>
-      <c r="K19" t="s" s="2818">
-        <v>970</v>
+      <c r="K19" t="s" s="6330">
+        <v>720</v>
       </c>
       <c r="L19" s="203"/>
       <c r="M19" s="149"/>
@@ -18584,20 +21705,20 @@
       <c r="F20" s="199" t="s">
         <v>66</v>
       </c>
-      <c r="G20" t="s" s="2822">
+      <c r="G20" t="s" s="6334">
         <v>796</v>
       </c>
-      <c r="H20" t="s" s="2822">
-        <v>935</v>
-      </c>
-      <c r="I20" t="s" s="2822">
+      <c r="H20" t="s" s="6334">
+        <v>1084</v>
+      </c>
+      <c r="I20" t="s" s="6334">
         <v>715</v>
       </c>
-      <c r="J20" t="s" s="2822">
+      <c r="J20" t="s" s="6334">
         <v>716</v>
       </c>
-      <c r="K20" t="s" s="2822">
-        <v>971</v>
+      <c r="K20" t="s" s="6334">
+        <v>726</v>
       </c>
       <c r="L20" s="203"/>
       <c r="M20" s="149"/>
@@ -18622,20 +21743,20 @@
       <c r="F21" s="195" t="s">
         <v>68</v>
       </c>
-      <c r="G21" t="s" s="2826">
+      <c r="G21" t="s" s="6338">
         <v>796</v>
       </c>
-      <c r="H21" t="s" s="2826">
-        <v>935</v>
-      </c>
-      <c r="I21" t="s" s="2826">
+      <c r="H21" t="s" s="6338">
+        <v>1084</v>
+      </c>
+      <c r="I21" t="s" s="6338">
         <v>715</v>
       </c>
-      <c r="J21" t="s" s="2826">
+      <c r="J21" t="s" s="6338">
         <v>716</v>
       </c>
-      <c r="K21" t="s" s="2826">
-        <v>889</v>
+      <c r="K21" t="s" s="6338">
+        <v>727</v>
       </c>
       <c r="L21" s="203"/>
       <c r="M21" s="149"/>
@@ -18660,20 +21781,20 @@
       <c r="F22" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G22" t="s" s="2830">
+      <c r="G22" t="s" s="6342">
         <v>796</v>
       </c>
-      <c r="H22" t="s" s="2830">
-        <v>935</v>
-      </c>
-      <c r="I22" t="s" s="2830">
+      <c r="H22" t="s" s="6342">
+        <v>1084</v>
+      </c>
+      <c r="I22" t="s" s="6342">
         <v>715</v>
       </c>
-      <c r="J22" t="s" s="2830">
+      <c r="J22" t="s" s="6342">
         <v>716</v>
       </c>
-      <c r="K22" t="s" s="2830">
-        <v>922</v>
+      <c r="K22" t="s" s="6342">
+        <v>728</v>
       </c>
       <c r="L22" s="203"/>
       <c r="M22" s="149"/>
@@ -18698,20 +21819,20 @@
       <c r="F23" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="G23" t="s" s="2862">
+      <c r="G23" t="s" s="6346">
         <v>796</v>
       </c>
-      <c r="H23" t="s" s="2862">
-        <v>935</v>
-      </c>
-      <c r="I23" t="s" s="2862">
+      <c r="H23" t="s" s="6346">
+        <v>1084</v>
+      </c>
+      <c r="I23" t="s" s="6346">
         <v>715</v>
       </c>
-      <c r="J23" t="s" s="2862">
-        <v>890</v>
-      </c>
-      <c r="K23" t="s" s="2862">
-        <v>890</v>
+      <c r="J23" t="s" s="6346">
+        <v>716</v>
+      </c>
+      <c r="K23" t="s" s="6346">
+        <v>729</v>
       </c>
       <c r="L23" s="203"/>
       <c r="M23" s="149"/>
@@ -18736,20 +21857,20 @@
       <c r="F24" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="G24" t="s" s="2834">
+      <c r="G24" t="s" s="6350">
         <v>796</v>
       </c>
-      <c r="H24" t="s" s="2834">
-        <v>935</v>
-      </c>
-      <c r="I24" t="s" s="2834">
+      <c r="H24" t="s" s="6350">
+        <v>1084</v>
+      </c>
+      <c r="I24" t="s" s="6350">
         <v>715</v>
       </c>
-      <c r="J24" t="s" s="2834">
+      <c r="J24" t="s" s="6350">
         <v>716</v>
       </c>
-      <c r="K24" t="s" s="2834">
-        <v>891</v>
+      <c r="K24" t="s" s="6350">
+        <v>1093</v>
       </c>
       <c r="L24" s="203"/>
       <c r="M24" s="149"/>
@@ -18774,20 +21895,20 @@
       <c r="F25" s="201" t="s">
         <v>76</v>
       </c>
-      <c r="G25" t="s" s="2838">
+      <c r="G25" t="s" s="6354">
         <v>796</v>
       </c>
-      <c r="H25" t="s" s="2838">
-        <v>935</v>
-      </c>
-      <c r="I25" t="s" s="2838">
+      <c r="H25" t="s" s="6354">
+        <v>1084</v>
+      </c>
+      <c r="I25" t="s" s="6354">
         <v>715</v>
       </c>
-      <c r="J25" t="s" s="2838">
+      <c r="J25" t="s" s="6354">
         <v>716</v>
       </c>
-      <c r="K25" t="s" s="2838">
-        <v>886</v>
+      <c r="K25" t="s" s="6354">
+        <v>1058</v>
       </c>
       <c r="L25" s="203"/>
       <c r="M25" s="149"/>
@@ -18812,20 +21933,20 @@
       <c r="F26" s="202" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="67" t="s">
+      <c r="G26" t="s" s="6358">
         <v>796</v>
       </c>
-      <c r="H26" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I26" s="67" t="s">
+      <c r="H26" t="s" s="6358">
+        <v>1084</v>
+      </c>
+      <c r="I26" t="s" s="6358">
         <v>715</v>
       </c>
-      <c r="J26" s="67" t="s">
+      <c r="J26" t="s" s="6358">
         <v>716</v>
       </c>
-      <c r="K26" s="67" t="s">
-        <v>833</v>
+      <c r="K26" t="s" s="6358">
+        <v>1094</v>
       </c>
       <c r="L26" s="204"/>
       <c r="M26" s="57"/>
@@ -18850,20 +21971,20 @@
       <c r="F27" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="G27" t="s" s="2842">
+      <c r="G27" t="s" s="6362">
         <v>796</v>
       </c>
-      <c r="H27" t="s" s="2842">
-        <v>935</v>
-      </c>
-      <c r="I27" t="s" s="2842">
+      <c r="H27" t="s" s="6362">
+        <v>1084</v>
+      </c>
+      <c r="I27" t="s" s="6362">
         <v>715</v>
       </c>
-      <c r="J27" t="s" s="2842">
+      <c r="J27" t="s" s="6362">
         <v>716</v>
       </c>
-      <c r="K27" t="s" s="2842">
-        <v>892</v>
+      <c r="K27" t="s" s="6362">
+        <v>730</v>
       </c>
       <c r="L27" s="203"/>
       <c r="M27" s="149"/>
@@ -18888,20 +22009,20 @@
       <c r="F28" s="197" t="s">
         <v>76</v>
       </c>
-      <c r="G28" t="s" s="2846">
+      <c r="G28" t="s" s="6366">
         <v>796</v>
       </c>
-      <c r="H28" t="s" s="2846">
-        <v>935</v>
-      </c>
-      <c r="I28" t="s" s="2846">
+      <c r="H28" t="s" s="6366">
+        <v>1084</v>
+      </c>
+      <c r="I28" t="s" s="6366">
         <v>715</v>
       </c>
-      <c r="J28" t="s" s="2846">
+      <c r="J28" t="s" s="6366">
         <v>716</v>
       </c>
-      <c r="K28" t="s" s="2846">
-        <v>721</v>
+      <c r="K28" t="s" s="6366">
+        <v>731</v>
       </c>
       <c r="L28" s="205"/>
       <c r="M28" s="149"/>
@@ -18926,20 +22047,20 @@
       <c r="F29" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="G29" t="s" s="2850">
+      <c r="G29" t="s" s="6370">
         <v>796</v>
       </c>
-      <c r="H29" t="s" s="2850">
-        <v>935</v>
-      </c>
-      <c r="I29" t="s" s="2850">
+      <c r="H29" t="s" s="6370">
+        <v>1084</v>
+      </c>
+      <c r="I29" t="s" s="6370">
         <v>715</v>
       </c>
-      <c r="J29" t="s" s="2850">
+      <c r="J29" t="s" s="6370">
         <v>716</v>
       </c>
-      <c r="K29" t="s" s="2850">
-        <v>721</v>
+      <c r="K29" t="s" s="6370">
+        <v>732</v>
       </c>
       <c r="L29" s="205"/>
       <c r="M29" s="149"/>
@@ -18964,20 +22085,20 @@
       <c r="F30" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="G30" t="s" s="2854">
+      <c r="G30" t="s" s="6374">
         <v>796</v>
       </c>
-      <c r="H30" t="s" s="2854">
-        <v>935</v>
-      </c>
-      <c r="I30" t="s" s="2854">
+      <c r="H30" t="s" s="6374">
+        <v>1084</v>
+      </c>
+      <c r="I30" t="s" s="6374">
         <v>715</v>
       </c>
-      <c r="J30" t="s" s="2854">
+      <c r="J30" t="s" s="6374">
         <v>716</v>
       </c>
-      <c r="K30" t="s" s="2854">
-        <v>722</v>
+      <c r="K30" t="s" s="6374">
+        <v>733</v>
       </c>
       <c r="L30" s="205"/>
       <c r="M30" s="149"/>
@@ -19002,20 +22123,20 @@
       <c r="F31" s="179" t="s">
         <v>81</v>
       </c>
-      <c r="G31" t="s" s="2858">
+      <c r="G31" t="s" s="6378">
         <v>796</v>
       </c>
-      <c r="H31" t="s" s="2858">
-        <v>935</v>
-      </c>
-      <c r="I31" t="s" s="2858">
+      <c r="H31" t="s" s="6378">
+        <v>1084</v>
+      </c>
+      <c r="I31" t="s" s="6378">
         <v>715</v>
       </c>
-      <c r="J31" t="s" s="2858">
+      <c r="J31" t="s" s="6378">
         <v>716</v>
       </c>
-      <c r="K31" t="s" s="2858">
-        <v>899</v>
+      <c r="K31" t="s" s="6378">
+        <v>734</v>
       </c>
       <c r="L31" s="203"/>
       <c r="M31" s="149"/>
@@ -19040,19 +22161,19 @@
       <c r="F32" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="G32" s="67" t="s">
+      <c r="G32" t="s" s="6382">
         <v>796</v>
       </c>
-      <c r="H32" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I32" s="67" t="s">
+      <c r="H32" t="s" s="6382">
+        <v>1084</v>
+      </c>
+      <c r="I32" t="s" s="6382">
         <v>715</v>
       </c>
-      <c r="J32" s="67" t="s">
+      <c r="J32" t="s" s="6382">
         <v>716</v>
       </c>
-      <c r="K32" s="67" t="s">
+      <c r="K32" t="s" s="6382">
         <v>735</v>
       </c>
       <c r="L32" s="206"/>
@@ -19060,206 +22181,206 @@
       <c r="N32" s="57"/>
     </row>
     <row r="33" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G33" s="67" t="s">
+      <c r="G33" t="s" s="6386">
         <v>796</v>
       </c>
-      <c r="H33" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I33" s="67" t="s">
+      <c r="H33" t="s" s="6386">
+        <v>1084</v>
+      </c>
+      <c r="I33" t="s" s="6386">
         <v>715</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" t="s" s="6386">
         <v>716</v>
       </c>
-      <c r="K33" s="67" t="s">
+      <c r="K33" t="s" s="6386">
         <v>736</v>
       </c>
     </row>
     <row r="34" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G34" s="67" t="s">
+      <c r="G34" t="s" s="6390">
         <v>796</v>
       </c>
-      <c r="H34" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I34" s="67" t="s">
+      <c r="H34" t="s" s="6390">
+        <v>1084</v>
+      </c>
+      <c r="I34" t="s" s="6390">
         <v>715</v>
       </c>
-      <c r="J34" s="67" t="s">
+      <c r="J34" t="s" s="6390">
         <v>716</v>
       </c>
-      <c r="K34" s="67" t="s">
+      <c r="K34" t="s" s="6390">
         <v>737</v>
       </c>
     </row>
     <row r="35" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G35" s="67" t="s">
+      <c r="G35" t="s" s="6394">
         <v>796</v>
       </c>
-      <c r="H35" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I35" s="67" t="s">
+      <c r="H35" t="s" s="6394">
+        <v>1084</v>
+      </c>
+      <c r="I35" t="s" s="6394">
         <v>715</v>
       </c>
-      <c r="J35" s="67" t="s">
+      <c r="J35" t="s" s="6394">
         <v>716</v>
       </c>
-      <c r="K35" s="67" t="s">
+      <c r="K35" t="s" s="6394">
         <v>738</v>
       </c>
     </row>
     <row r="36" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="67" t="s">
+      <c r="G36" t="s" s="6398">
         <v>796</v>
       </c>
-      <c r="H36" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I36" s="67" t="s">
+      <c r="H36" t="s" s="6398">
+        <v>1084</v>
+      </c>
+      <c r="I36" t="s" s="6398">
         <v>715</v>
       </c>
-      <c r="J36" s="67" t="s">
+      <c r="J36" t="s" s="6398">
         <v>716</v>
       </c>
-      <c r="K36" s="67" t="s">
+      <c r="K36" t="s" s="6398">
         <v>739</v>
       </c>
     </row>
     <row r="37" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="67" t="s">
+      <c r="G37" t="s" s="6402">
         <v>796</v>
       </c>
-      <c r="H37" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I37" s="67" t="s">
+      <c r="H37" t="s" s="6402">
+        <v>1084</v>
+      </c>
+      <c r="I37" t="s" s="6402">
         <v>715</v>
       </c>
-      <c r="J37" s="67" t="s">
+      <c r="J37" t="s" s="6402">
         <v>716</v>
       </c>
-      <c r="K37" s="67" t="s">
+      <c r="K37" t="s" s="6402">
         <v>740</v>
       </c>
     </row>
     <row r="38" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="67" t="s">
+      <c r="G38" t="s" s="6406">
         <v>796</v>
       </c>
-      <c r="H38" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I38" s="67" t="s">
+      <c r="H38" t="s" s="6406">
+        <v>1084</v>
+      </c>
+      <c r="I38" t="s" s="6406">
         <v>715</v>
       </c>
-      <c r="J38" s="67" t="s">
+      <c r="J38" t="s" s="6406">
         <v>716</v>
       </c>
-      <c r="K38" s="67" t="s">
+      <c r="K38" t="s" s="6406">
         <v>741</v>
       </c>
     </row>
     <row r="39" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="67" t="s">
+      <c r="G39" t="s" s="6410">
         <v>796</v>
       </c>
-      <c r="H39" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I39" s="67" t="s">
+      <c r="H39" t="s" s="6410">
+        <v>1084</v>
+      </c>
+      <c r="I39" t="s" s="6410">
         <v>715</v>
       </c>
-      <c r="J39" s="67" t="s">
+      <c r="J39" t="s" s="6410">
         <v>716</v>
       </c>
-      <c r="K39" s="67" t="s">
+      <c r="K39" t="s" s="6410">
         <v>742</v>
       </c>
     </row>
     <row r="40" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="67" t="s">
+      <c r="G40" t="s" s="6414">
         <v>796</v>
       </c>
-      <c r="H40" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I40" s="67" t="s">
+      <c r="H40" t="s" s="6414">
+        <v>1084</v>
+      </c>
+      <c r="I40" t="s" s="6414">
         <v>715</v>
       </c>
-      <c r="J40" s="67" t="s">
+      <c r="J40" t="s" s="6414">
         <v>716</v>
       </c>
-      <c r="K40" s="67" t="s">
+      <c r="K40" t="s" s="6414">
         <v>743</v>
       </c>
     </row>
     <row r="41" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="67" t="s">
+      <c r="G41" t="s" s="6418">
         <v>796</v>
       </c>
-      <c r="H41" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I41" s="67" t="s">
+      <c r="H41" t="s" s="6418">
+        <v>1084</v>
+      </c>
+      <c r="I41" t="s" s="6418">
         <v>715</v>
       </c>
-      <c r="J41" s="67" t="s">
+      <c r="J41" t="s" s="6418">
         <v>716</v>
       </c>
-      <c r="K41" s="67" t="s">
+      <c r="K41" t="s" s="6418">
         <v>743</v>
       </c>
     </row>
     <row r="42" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G42" s="67" t="s">
+      <c r="G42" t="s" s="6422">
         <v>796</v>
       </c>
-      <c r="H42" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I42" s="67" t="s">
+      <c r="H42" t="s" s="6422">
+        <v>1084</v>
+      </c>
+      <c r="I42" t="s" s="6422">
         <v>715</v>
       </c>
-      <c r="J42" s="67" t="s">
+      <c r="J42" t="s" s="6422">
         <v>716</v>
       </c>
-      <c r="K42" s="67" t="s">
-        <v>767</v>
+      <c r="K42" t="s" s="6422">
+        <v>1093</v>
       </c>
     </row>
     <row r="43" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G43" s="67" t="s">
+      <c r="G43" t="s" s="6426">
         <v>796</v>
       </c>
-      <c r="H43" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I43" s="67" t="s">
+      <c r="H43" t="s" s="6426">
+        <v>1084</v>
+      </c>
+      <c r="I43" t="s" s="6426">
         <v>715</v>
       </c>
-      <c r="J43" s="67" t="s">
+      <c r="J43" t="s" s="6426">
         <v>716</v>
       </c>
-      <c r="K43" s="67" t="s">
-        <v>801</v>
+      <c r="K43" t="s" s="6426">
+        <v>1060</v>
       </c>
     </row>
     <row r="44" spans="7:11" s="101" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G44" s="67" t="s">
+      <c r="G44" t="s" s="6430">
         <v>796</v>
       </c>
-      <c r="H44" s="67" t="s">
-        <v>802</v>
-      </c>
-      <c r="I44" s="67" t="s">
+      <c r="H44" t="s" s="6430">
+        <v>1084</v>
+      </c>
+      <c r="I44" t="s" s="6430">
         <v>715</v>
       </c>
-      <c r="J44" s="67" t="s">
+      <c r="J44" t="s" s="6430">
         <v>716</v>
       </c>
-      <c r="K44" s="67" t="s">
+      <c r="K44" t="s" s="6430">
         <v>744</v>
       </c>
     </row>
@@ -19405,7 +22526,7 @@
       </c>
       <c r="E1" s="153" t="n">
         <f>COUNTIF(J:J,"Passed")</f>
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="F1" s="154" t="s">
         <v>16</v>
@@ -19491,19 +22612,19 @@
       <c r="F3" s="173" t="s">
         <v>194</v>
       </c>
-      <c r="G3" t="s" s="5630">
+      <c r="G3" t="s" s="6434">
         <v>796</v>
       </c>
-      <c r="H3" t="s" s="5630">
-        <v>1053</v>
-      </c>
-      <c r="I3" t="s" s="5630">
+      <c r="H3" t="s" s="6434">
+        <v>1084</v>
+      </c>
+      <c r="I3" t="s" s="6434">
         <v>724</v>
       </c>
-      <c r="J3" t="s" s="5630">
+      <c r="J3" t="s" s="6434">
         <v>716</v>
       </c>
-      <c r="K3" t="s" s="5630">
+      <c r="K3" t="s" s="6434">
         <v>973</v>
       </c>
       <c r="L3" s="181"/>
@@ -19530,20 +22651,20 @@
       <c r="F4" s="194" t="s">
         <v>101</v>
       </c>
-      <c r="G4" t="s" s="5562">
+      <c r="G4" t="s" s="6970">
         <v>796</v>
       </c>
-      <c r="H4" t="s" s="5562">
-        <v>1053</v>
-      </c>
-      <c r="I4" t="s" s="5562">
+      <c r="H4" t="s" s="6970">
+        <v>1084</v>
+      </c>
+      <c r="I4" t="s" s="6970">
         <v>724</v>
       </c>
-      <c r="J4" t="s" s="5562">
+      <c r="J4" t="s" s="6970">
         <v>716</v>
       </c>
-      <c r="K4" t="s" s="5562">
-        <v>1063</v>
+      <c r="K4" t="s" s="6970">
+        <v>721</v>
       </c>
       <c r="L4" s="182"/>
       <c r="M4" s="235" t="s">
@@ -19569,20 +22690,20 @@
       <c r="F5" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="G5" t="s" s="5566">
+      <c r="G5" t="s" s="6974">
         <v>796</v>
       </c>
-      <c r="H5" t="s" s="5566">
-        <v>1053</v>
-      </c>
-      <c r="I5" t="s" s="5566">
+      <c r="H5" t="s" s="6974">
+        <v>1084</v>
+      </c>
+      <c r="I5" t="s" s="6974">
         <v>724</v>
       </c>
-      <c r="J5" t="s" s="5566">
+      <c r="J5" t="s" s="6974">
         <v>716</v>
       </c>
-      <c r="K5" t="s" s="5566">
-        <v>1064</v>
+      <c r="K5" t="s" s="6974">
+        <v>717</v>
       </c>
       <c r="L5" s="182"/>
       <c r="M5" s="19" t="s">
@@ -19608,20 +22729,20 @@
       <c r="F6" s="178" t="s">
         <v>108</v>
       </c>
-      <c r="G6" t="s" s="5570">
+      <c r="G6" t="s" s="6978">
         <v>796</v>
       </c>
-      <c r="H6" t="s" s="5570">
-        <v>1053</v>
-      </c>
-      <c r="I6" t="s" s="5570">
+      <c r="H6" t="s" s="6978">
+        <v>1084</v>
+      </c>
+      <c r="I6" t="s" s="6978">
         <v>724</v>
       </c>
-      <c r="J6" t="s" s="5570">
+      <c r="J6" t="s" s="6978">
         <v>716</v>
       </c>
-      <c r="K6" t="s" s="5570">
-        <v>797</v>
+      <c r="K6" t="s" s="6978">
+        <v>1095</v>
       </c>
       <c r="L6" s="182"/>
       <c r="M6" s="18"/>
@@ -19645,20 +22766,20 @@
       <c r="F7" s="178" t="s">
         <v>110</v>
       </c>
-      <c r="G7" t="s" s="5574">
+      <c r="G7" t="s" s="6982">
         <v>796</v>
       </c>
-      <c r="H7" t="s" s="5574">
-        <v>1053</v>
-      </c>
-      <c r="I7" t="s" s="5574">
+      <c r="H7" t="s" s="6982">
+        <v>1084</v>
+      </c>
+      <c r="I7" t="s" s="6982">
         <v>724</v>
       </c>
-      <c r="J7" t="s" s="5574">
+      <c r="J7" t="s" s="6982">
         <v>716</v>
       </c>
-      <c r="K7" t="s" s="5574">
-        <v>1065</v>
+      <c r="K7" t="s" s="6982">
+        <v>1096</v>
       </c>
       <c r="L7" s="183"/>
       <c r="M7" s="18"/>
@@ -19682,20 +22803,20 @@
       <c r="F8" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="G8" t="s" s="5578">
+      <c r="G8" t="s" s="6986">
         <v>796</v>
       </c>
-      <c r="H8" t="s" s="5578">
-        <v>1053</v>
-      </c>
-      <c r="I8" t="s" s="5578">
+      <c r="H8" t="s" s="6986">
+        <v>1084</v>
+      </c>
+      <c r="I8" t="s" s="6986">
         <v>724</v>
       </c>
-      <c r="J8" t="s" s="5578">
+      <c r="J8" t="s" s="6986">
         <v>716</v>
       </c>
-      <c r="K8" t="s" s="5578">
-        <v>919</v>
+      <c r="K8" t="s" s="6986">
+        <v>797</v>
       </c>
       <c r="L8" s="183"/>
       <c r="M8" s="18"/>
@@ -19719,20 +22840,20 @@
       <c r="F9" s="178" t="s">
         <v>113</v>
       </c>
-      <c r="G9" t="s" s="5582">
+      <c r="G9" t="s" s="6990">
         <v>796</v>
       </c>
-      <c r="H9" t="s" s="5582">
-        <v>1053</v>
-      </c>
-      <c r="I9" t="s" s="5582">
+      <c r="H9" t="s" s="6990">
+        <v>1084</v>
+      </c>
+      <c r="I9" t="s" s="6990">
         <v>724</v>
       </c>
-      <c r="J9" t="s" s="5582">
+      <c r="J9" t="s" s="6990">
         <v>716</v>
       </c>
-      <c r="K9" t="s" s="5582">
-        <v>718</v>
+      <c r="K9" t="s" s="6990">
+        <v>1097</v>
       </c>
       <c r="L9" s="183"/>
       <c r="M9" s="18"/>
@@ -19756,20 +22877,20 @@
       <c r="F10" s="178" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s" s="5586">
+      <c r="G10" t="s" s="6994">
         <v>796</v>
       </c>
-      <c r="H10" t="s" s="5586">
-        <v>1053</v>
-      </c>
-      <c r="I10" t="s" s="5586">
+      <c r="H10" t="s" s="6994">
+        <v>1084</v>
+      </c>
+      <c r="I10" t="s" s="6994">
         <v>724</v>
       </c>
-      <c r="J10" t="s" s="5586">
+      <c r="J10" t="s" s="6994">
         <v>716</v>
       </c>
-      <c r="K10" t="s" s="5586">
-        <v>797</v>
+      <c r="K10" t="s" s="6994">
+        <v>984</v>
       </c>
       <c r="L10" s="183"/>
       <c r="M10" s="18"/>
@@ -19793,20 +22914,20 @@
       <c r="F11" s="178" t="s">
         <v>117</v>
       </c>
-      <c r="G11" t="s" s="5590">
+      <c r="G11" t="s" s="6998">
         <v>796</v>
       </c>
-      <c r="H11" t="s" s="5590">
-        <v>1053</v>
-      </c>
-      <c r="I11" t="s" s="5590">
+      <c r="H11" t="s" s="6998">
+        <v>1084</v>
+      </c>
+      <c r="I11" t="s" s="6998">
         <v>724</v>
       </c>
-      <c r="J11" t="s" s="5590">
+      <c r="J11" t="s" s="6998">
         <v>716</v>
       </c>
-      <c r="K11" t="s" s="5590">
-        <v>1064</v>
+      <c r="K11" t="s" s="6998">
+        <v>718</v>
       </c>
       <c r="L11" s="183"/>
       <c r="M11" s="17"/>
@@ -19830,20 +22951,20 @@
       <c r="F12" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s" s="5594">
+      <c r="G12" t="s" s="7002">
         <v>796</v>
       </c>
-      <c r="H12" t="s" s="5594">
-        <v>1053</v>
-      </c>
-      <c r="I12" t="s" s="5594">
+      <c r="H12" t="s" s="7002">
+        <v>1084</v>
+      </c>
+      <c r="I12" t="s" s="7002">
         <v>724</v>
       </c>
-      <c r="J12" t="s" s="5594">
+      <c r="J12" t="s" s="7002">
         <v>716</v>
       </c>
-      <c r="K12" t="s" s="5594">
-        <v>722</v>
+      <c r="K12" t="s" s="7002">
+        <v>797</v>
       </c>
       <c r="L12" s="183"/>
       <c r="M12" s="16" t="s">
@@ -19869,20 +22990,20 @@
       <c r="F13" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="G13" t="s" s="5598">
+      <c r="G13" t="s" s="7006">
         <v>796</v>
       </c>
-      <c r="H13" t="s" s="5598">
-        <v>1053</v>
-      </c>
-      <c r="I13" t="s" s="5598">
+      <c r="H13" t="s" s="7006">
+        <v>1084</v>
+      </c>
+      <c r="I13" t="s" s="7006">
         <v>724</v>
       </c>
-      <c r="J13" t="s" s="5598">
+      <c r="J13" t="s" s="7006">
         <v>716</v>
       </c>
-      <c r="K13" t="s" s="5598">
-        <v>1063</v>
+      <c r="K13" t="s" s="7006">
+        <v>1096</v>
       </c>
       <c r="L13" s="183"/>
       <c r="M13" s="15"/>
@@ -19906,20 +23027,20 @@
       <c r="F14" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="G14" t="s" s="5602">
+      <c r="G14" t="s" s="7010">
         <v>796</v>
       </c>
-      <c r="H14" t="s" s="5602">
-        <v>1053</v>
-      </c>
-      <c r="I14" t="s" s="5602">
+      <c r="H14" t="s" s="7010">
+        <v>1084</v>
+      </c>
+      <c r="I14" t="s" s="7010">
         <v>724</v>
       </c>
-      <c r="J14" t="s" s="5602">
+      <c r="J14" t="s" s="7010">
         <v>716</v>
       </c>
-      <c r="K14" t="s" s="5602">
-        <v>1065</v>
+      <c r="K14" t="s" s="7010">
+        <v>721</v>
       </c>
       <c r="L14" s="183"/>
       <c r="M14" s="15"/>
@@ -19943,20 +23064,20 @@
       <c r="F15" s="195" t="s">
         <v>124</v>
       </c>
-      <c r="G15" t="s" s="5606">
+      <c r="G15" t="s" s="7014">
         <v>796</v>
       </c>
-      <c r="H15" t="s" s="5606">
-        <v>1053</v>
-      </c>
-      <c r="I15" t="s" s="5606">
+      <c r="H15" t="s" s="7014">
+        <v>1084</v>
+      </c>
+      <c r="I15" t="s" s="7014">
         <v>724</v>
       </c>
-      <c r="J15" t="s" s="5606">
+      <c r="J15" t="s" s="7014">
         <v>716</v>
       </c>
-      <c r="K15" t="s" s="5606">
-        <v>719</v>
+      <c r="K15" t="s" s="7014">
+        <v>1095</v>
       </c>
       <c r="L15" s="183"/>
       <c r="M15" s="15"/>
@@ -19980,20 +23101,20 @@
       <c r="F16" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="G16" t="s" s="5610">
+      <c r="G16" t="s" s="7018">
         <v>796</v>
       </c>
-      <c r="H16" t="s" s="5610">
-        <v>1053</v>
-      </c>
-      <c r="I16" t="s" s="5610">
+      <c r="H16" t="s" s="7018">
+        <v>1084</v>
+      </c>
+      <c r="I16" t="s" s="7018">
         <v>724</v>
       </c>
-      <c r="J16" t="s" s="5610">
+      <c r="J16" t="s" s="7018">
         <v>716</v>
       </c>
-      <c r="K16" t="s" s="5610">
-        <v>919</v>
+      <c r="K16" t="s" s="7018">
+        <v>1097</v>
       </c>
       <c r="L16" s="183"/>
       <c r="M16" s="15"/>
@@ -20017,20 +23138,20 @@
       <c r="F17" s="195" t="s">
         <v>58</v>
       </c>
-      <c r="G17" t="s" s="5614">
+      <c r="G17" t="s" s="7022">
         <v>796</v>
       </c>
-      <c r="H17" t="s" s="5614">
-        <v>1053</v>
-      </c>
-      <c r="I17" t="s" s="5614">
+      <c r="H17" t="s" s="7022">
+        <v>1084</v>
+      </c>
+      <c r="I17" t="s" s="7022">
         <v>724</v>
       </c>
-      <c r="J17" t="s" s="5614">
+      <c r="J17" t="s" s="7022">
         <v>716</v>
       </c>
-      <c r="K17" t="s" s="5614">
-        <v>720</v>
+      <c r="K17" t="s" s="7022">
+        <v>719</v>
       </c>
       <c r="L17" s="183"/>
       <c r="M17" s="15"/>
@@ -20054,20 +23175,20 @@
       <c r="F18" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="G18" t="s" s="5618">
+      <c r="G18" t="s" s="7026">
         <v>796</v>
       </c>
-      <c r="H18" t="s" s="5618">
-        <v>1053</v>
-      </c>
-      <c r="I18" t="s" s="5618">
+      <c r="H18" t="s" s="7026">
+        <v>1084</v>
+      </c>
+      <c r="I18" t="s" s="7026">
         <v>724</v>
       </c>
-      <c r="J18" t="s" s="5618">
+      <c r="J18" t="s" s="7026">
         <v>716</v>
       </c>
-      <c r="K18" t="s" s="5618">
-        <v>718</v>
+      <c r="K18" t="s" s="7026">
+        <v>985</v>
       </c>
       <c r="L18" s="183"/>
       <c r="M18" s="15"/>
@@ -20091,20 +23212,20 @@
       <c r="F19" s="195" t="s">
         <v>130</v>
       </c>
-      <c r="G19" t="s" s="5622">
+      <c r="G19" t="s" s="7030">
         <v>796</v>
       </c>
-      <c r="H19" t="s" s="5622">
-        <v>1053</v>
-      </c>
-      <c r="I19" t="s" s="5622">
+      <c r="H19" t="s" s="7030">
+        <v>1084</v>
+      </c>
+      <c r="I19" t="s" s="7030">
         <v>724</v>
       </c>
-      <c r="J19" t="s" s="5622">
+      <c r="J19" t="s" s="7030">
         <v>716</v>
       </c>
-      <c r="K19" t="s" s="5622">
-        <v>1066</v>
+      <c r="K19" t="s" s="7030">
+        <v>720</v>
       </c>
       <c r="L19" s="183"/>
       <c r="M19" s="15"/>
@@ -20128,19 +23249,19 @@
       <c r="F20" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="G20" t="s" s="5546">
+      <c r="G20" t="s" s="7034">
         <v>796</v>
       </c>
-      <c r="H20" t="s" s="5546">
-        <v>1053</v>
-      </c>
-      <c r="I20" t="s" s="5546">
+      <c r="H20" t="s" s="7034">
+        <v>1084</v>
+      </c>
+      <c r="I20" t="s" s="7034">
         <v>724</v>
       </c>
-      <c r="J20" t="s" s="5546">
+      <c r="J20" t="s" s="7034">
         <v>716</v>
       </c>
-      <c r="K20" t="s" s="5546">
+      <c r="K20" t="s" s="7034">
         <v>726</v>
       </c>
       <c r="L20" s="109"/>
@@ -20165,19 +23286,19 @@
       <c r="F21" s="195" t="s">
         <v>133</v>
       </c>
-      <c r="G21" t="s" s="5550">
+      <c r="G21" t="s" s="7038">
         <v>796</v>
       </c>
-      <c r="H21" t="s" s="5550">
-        <v>1053</v>
-      </c>
-      <c r="I21" t="s" s="5550">
+      <c r="H21" t="s" s="7038">
+        <v>1084</v>
+      </c>
+      <c r="I21" t="s" s="7038">
         <v>724</v>
       </c>
-      <c r="J21" t="s" s="5550">
+      <c r="J21" t="s" s="7038">
         <v>716</v>
       </c>
-      <c r="K21" t="s" s="5550">
+      <c r="K21" t="s" s="7038">
         <v>727</v>
       </c>
       <c r="L21" s="183"/>
@@ -20202,19 +23323,19 @@
       <c r="F22" s="195" t="s">
         <v>135</v>
       </c>
-      <c r="G22" t="s" s="5554">
+      <c r="G22" t="s" s="7042">
         <v>796</v>
       </c>
-      <c r="H22" t="s" s="5554">
-        <v>1053</v>
-      </c>
-      <c r="I22" t="s" s="5554">
+      <c r="H22" t="s" s="7042">
+        <v>1084</v>
+      </c>
+      <c r="I22" t="s" s="7042">
         <v>724</v>
       </c>
-      <c r="J22" t="s" s="5554">
+      <c r="J22" t="s" s="7042">
         <v>716</v>
       </c>
-      <c r="K22" t="s" s="5554">
+      <c r="K22" t="s" s="7042">
         <v>728</v>
       </c>
       <c r="L22" s="109"/>
@@ -20239,20 +23360,20 @@
       <c r="F23" s="195" t="s">
         <v>137</v>
       </c>
-      <c r="G23" t="s" s="5474">
+      <c r="G23" t="s" s="7046">
         <v>796</v>
       </c>
-      <c r="H23" t="s" s="5474">
-        <v>1053</v>
-      </c>
-      <c r="I23" t="s" s="5474">
+      <c r="H23" t="s" s="7046">
+        <v>1084</v>
+      </c>
+      <c r="I23" t="s" s="7046">
         <v>724</v>
       </c>
-      <c r="J23" t="s" s="5474">
-        <v>890</v>
-      </c>
-      <c r="K23" t="s" s="5474">
-        <v>890</v>
+      <c r="J23" t="s" s="7046">
+        <v>716</v>
+      </c>
+      <c r="K23" t="s" s="7046">
+        <v>729</v>
       </c>
       <c r="L23" s="183"/>
       <c r="M23" s="15"/>
@@ -20276,20 +23397,20 @@
       <c r="F24" s="195" t="s">
         <v>139</v>
       </c>
-      <c r="G24" t="s" s="5446">
+      <c r="G24" t="s" s="7050">
         <v>796</v>
       </c>
-      <c r="H24" t="s" s="5446">
-        <v>1053</v>
-      </c>
-      <c r="I24" t="s" s="5446">
+      <c r="H24" t="s" s="7050">
+        <v>1084</v>
+      </c>
+      <c r="I24" t="s" s="7050">
         <v>724</v>
       </c>
-      <c r="J24" t="s" s="5446">
+      <c r="J24" t="s" s="7050">
         <v>716</v>
       </c>
-      <c r="K24" t="s" s="5446">
-        <v>891</v>
+      <c r="K24" t="s" s="7050">
+        <v>1093</v>
       </c>
       <c r="L24" s="183"/>
       <c r="M24" s="15"/>
@@ -20313,20 +23434,20 @@
       <c r="F25" s="195" t="s">
         <v>141</v>
       </c>
-      <c r="G25" t="s" s="5450">
+      <c r="G25" t="s" s="7054">
         <v>796</v>
       </c>
-      <c r="H25" t="s" s="5450">
-        <v>1053</v>
-      </c>
-      <c r="I25" t="s" s="5450">
+      <c r="H25" t="s" s="7054">
+        <v>1084</v>
+      </c>
+      <c r="I25" t="s" s="7054">
         <v>724</v>
       </c>
-      <c r="J25" t="s" s="5450">
+      <c r="J25" t="s" s="7054">
         <v>716</v>
       </c>
-      <c r="K25" t="s" s="5450">
-        <v>886</v>
+      <c r="K25" t="s" s="7054">
+        <v>1058</v>
       </c>
       <c r="L25" s="183"/>
       <c r="M25" s="15"/>
@@ -20350,20 +23471,20 @@
       <c r="F26" s="195" t="s">
         <v>143</v>
       </c>
-      <c r="G26" t="s" s="5242">
+      <c r="G26" t="s" s="7058">
         <v>796</v>
       </c>
-      <c r="H26" t="s" s="5242">
-        <v>1053</v>
-      </c>
-      <c r="I26" t="s" s="5242">
+      <c r="H26" t="s" s="7058">
+        <v>1084</v>
+      </c>
+      <c r="I26" t="s" s="7058">
         <v>724</v>
       </c>
-      <c r="J26" t="s" s="5242">
+      <c r="J26" t="s" s="7058">
         <v>716</v>
       </c>
-      <c r="K26" t="s" s="5242">
-        <v>1059</v>
+      <c r="K26" t="s" s="7058">
+        <v>1098</v>
       </c>
       <c r="L26" s="183"/>
       <c r="M26" s="15"/>
@@ -20387,20 +23508,20 @@
       <c r="F27" s="195" t="s">
         <v>145</v>
       </c>
-      <c r="G27" t="s" s="5454">
+      <c r="G27" t="s" s="7062">
         <v>796</v>
       </c>
-      <c r="H27" t="s" s="5454">
-        <v>1053</v>
-      </c>
-      <c r="I27" t="s" s="5454">
+      <c r="H27" t="s" s="7062">
+        <v>1084</v>
+      </c>
+      <c r="I27" t="s" s="7062">
         <v>724</v>
       </c>
-      <c r="J27" t="s" s="5454">
+      <c r="J27" t="s" s="7062">
         <v>716</v>
       </c>
-      <c r="K27" t="s" s="5454">
-        <v>892</v>
+      <c r="K27" t="s" s="7062">
+        <v>730</v>
       </c>
       <c r="L27" s="183"/>
       <c r="M27" s="15"/>
@@ -20424,20 +23545,20 @@
       <c r="F28" s="195" t="s">
         <v>147</v>
       </c>
-      <c r="G28" t="s" s="5458">
+      <c r="G28" t="s" s="7066">
         <v>796</v>
       </c>
-      <c r="H28" t="s" s="5458">
-        <v>1053</v>
-      </c>
-      <c r="I28" t="s" s="5458">
+      <c r="H28" t="s" s="7066">
+        <v>1084</v>
+      </c>
+      <c r="I28" t="s" s="7066">
         <v>724</v>
       </c>
-      <c r="J28" t="s" s="5458">
+      <c r="J28" t="s" s="7066">
         <v>716</v>
       </c>
-      <c r="K28" t="s" s="5458">
-        <v>721</v>
+      <c r="K28" t="s" s="7066">
+        <v>731</v>
       </c>
       <c r="L28" s="183"/>
       <c r="M28" s="15"/>
@@ -20461,20 +23582,20 @@
       <c r="F29" s="195" t="s">
         <v>149</v>
       </c>
-      <c r="G29" t="s" s="5462">
+      <c r="G29" t="s" s="7070">
         <v>796</v>
       </c>
-      <c r="H29" t="s" s="5462">
-        <v>1053</v>
-      </c>
-      <c r="I29" t="s" s="5462">
+      <c r="H29" t="s" s="7070">
+        <v>1084</v>
+      </c>
+      <c r="I29" t="s" s="7070">
         <v>724</v>
       </c>
-      <c r="J29" t="s" s="5462">
+      <c r="J29" t="s" s="7070">
         <v>716</v>
       </c>
-      <c r="K29" t="s" s="5462">
-        <v>721</v>
+      <c r="K29" t="s" s="7070">
+        <v>732</v>
       </c>
       <c r="L29" s="183"/>
       <c r="M29" s="15"/>
@@ -20498,20 +23619,20 @@
       <c r="F30" s="195" t="s">
         <v>151</v>
       </c>
-      <c r="G30" t="s" s="5466">
+      <c r="G30" t="s" s="7074">
         <v>796</v>
       </c>
-      <c r="H30" t="s" s="5466">
-        <v>1053</v>
-      </c>
-      <c r="I30" t="s" s="5466">
+      <c r="H30" t="s" s="7074">
+        <v>1084</v>
+      </c>
+      <c r="I30" t="s" s="7074">
         <v>724</v>
       </c>
-      <c r="J30" t="s" s="5466">
+      <c r="J30" t="s" s="7074">
         <v>716</v>
       </c>
-      <c r="K30" t="s" s="5466">
-        <v>722</v>
+      <c r="K30" t="s" s="7074">
+        <v>733</v>
       </c>
       <c r="L30" s="183"/>
       <c r="M30" s="15"/>
@@ -20535,20 +23656,20 @@
       <c r="F31" s="195" t="s">
         <v>153</v>
       </c>
-      <c r="G31" t="s" s="5470">
+      <c r="G31" t="s" s="7078">
         <v>796</v>
       </c>
-      <c r="H31" t="s" s="5470">
-        <v>1053</v>
-      </c>
-      <c r="I31" t="s" s="5470">
+      <c r="H31" t="s" s="7078">
+        <v>1084</v>
+      </c>
+      <c r="I31" t="s" s="7078">
         <v>724</v>
       </c>
-      <c r="J31" t="s" s="5470">
+      <c r="J31" t="s" s="7078">
         <v>716</v>
       </c>
-      <c r="K31" t="s" s="5470">
-        <v>899</v>
+      <c r="K31" t="s" s="7078">
+        <v>734</v>
       </c>
       <c r="L31" s="183"/>
       <c r="M31" s="15"/>
@@ -20574,19 +23695,19 @@
       <c r="F32" s="195" t="s">
         <v>155</v>
       </c>
-      <c r="G32" t="s" s="5266">
+      <c r="G32" t="s" s="7082">
         <v>796</v>
       </c>
-      <c r="H32" t="s" s="5266">
-        <v>1053</v>
-      </c>
-      <c r="I32" t="s" s="5266">
+      <c r="H32" t="s" s="7082">
+        <v>1084</v>
+      </c>
+      <c r="I32" t="s" s="7082">
         <v>724</v>
       </c>
-      <c r="J32" t="s" s="5266">
+      <c r="J32" t="s" s="7082">
         <v>716</v>
       </c>
-      <c r="K32" t="s" s="5266">
+      <c r="K32" t="s" s="7082">
         <v>735</v>
       </c>
       <c r="L32" s="183"/>
@@ -20611,19 +23732,19 @@
       <c r="F33" s="195" t="s">
         <v>157</v>
       </c>
-      <c r="G33" t="s" s="5270">
+      <c r="G33" t="s" s="7086">
         <v>796</v>
       </c>
-      <c r="H33" t="s" s="5270">
-        <v>1053</v>
-      </c>
-      <c r="I33" t="s" s="5270">
+      <c r="H33" t="s" s="7086">
+        <v>1084</v>
+      </c>
+      <c r="I33" t="s" s="7086">
         <v>724</v>
       </c>
-      <c r="J33" t="s" s="5270">
+      <c r="J33" t="s" s="7086">
         <v>716</v>
       </c>
-      <c r="K33" t="s" s="5270">
+      <c r="K33" t="s" s="7086">
         <v>736</v>
       </c>
       <c r="L33" s="183"/>
@@ -20650,19 +23771,19 @@
       <c r="F34" s="195" t="s">
         <v>159</v>
       </c>
-      <c r="G34" t="s" s="5274">
+      <c r="G34" t="s" s="7090">
         <v>796</v>
       </c>
-      <c r="H34" t="s" s="5274">
-        <v>1053</v>
-      </c>
-      <c r="I34" t="s" s="5274">
+      <c r="H34" t="s" s="7090">
+        <v>1084</v>
+      </c>
+      <c r="I34" t="s" s="7090">
         <v>724</v>
       </c>
-      <c r="J34" t="s" s="5274">
+      <c r="J34" t="s" s="7090">
         <v>716</v>
       </c>
-      <c r="K34" t="s" s="5274">
+      <c r="K34" t="s" s="7090">
         <v>737</v>
       </c>
       <c r="L34" s="109"/>
@@ -20689,19 +23810,19 @@
       <c r="F35" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="G35" t="s" s="5278">
+      <c r="G35" t="s" s="7094">
         <v>796</v>
       </c>
-      <c r="H35" t="s" s="5278">
-        <v>1053</v>
-      </c>
-      <c r="I35" t="s" s="5278">
+      <c r="H35" t="s" s="7094">
+        <v>1084</v>
+      </c>
+      <c r="I35" t="s" s="7094">
         <v>724</v>
       </c>
-      <c r="J35" t="s" s="5278">
+      <c r="J35" t="s" s="7094">
         <v>716</v>
       </c>
-      <c r="K35" t="s" s="5278">
+      <c r="K35" t="s" s="7094">
         <v>738</v>
       </c>
       <c r="L35" s="183"/>
@@ -20728,19 +23849,19 @@
       <c r="F36" s="195" t="s">
         <v>163</v>
       </c>
-      <c r="G36" t="s" s="5282">
+      <c r="G36" t="s" s="7098">
         <v>796</v>
       </c>
-      <c r="H36" t="s" s="5282">
-        <v>1053</v>
-      </c>
-      <c r="I36" t="s" s="5282">
+      <c r="H36" t="s" s="7098">
+        <v>1084</v>
+      </c>
+      <c r="I36" t="s" s="7098">
         <v>724</v>
       </c>
-      <c r="J36" t="s" s="5282">
+      <c r="J36" t="s" s="7098">
         <v>716</v>
       </c>
-      <c r="K36" t="s" s="5282">
+      <c r="K36" t="s" s="7098">
         <v>739</v>
       </c>
       <c r="L36" s="183"/>
@@ -20767,19 +23888,19 @@
       <c r="F37" s="195" t="s">
         <v>165</v>
       </c>
-      <c r="G37" t="s" s="5286">
+      <c r="G37" t="s" s="7102">
         <v>796</v>
       </c>
-      <c r="H37" t="s" s="5286">
-        <v>1053</v>
-      </c>
-      <c r="I37" t="s" s="5286">
+      <c r="H37" t="s" s="7102">
+        <v>1084</v>
+      </c>
+      <c r="I37" t="s" s="7102">
         <v>724</v>
       </c>
-      <c r="J37" t="s" s="5286">
+      <c r="J37" t="s" s="7102">
         <v>716</v>
       </c>
-      <c r="K37" t="s" s="5286">
+      <c r="K37" t="s" s="7102">
         <v>740</v>
       </c>
       <c r="L37" s="183"/>
@@ -20806,19 +23927,19 @@
       <c r="F38" s="195" t="s">
         <v>167</v>
       </c>
-      <c r="G38" t="s" s="5290">
+      <c r="G38" t="s" s="7106">
         <v>796</v>
       </c>
-      <c r="H38" t="s" s="5290">
-        <v>1053</v>
-      </c>
-      <c r="I38" t="s" s="5290">
+      <c r="H38" t="s" s="7106">
+        <v>1084</v>
+      </c>
+      <c r="I38" t="s" s="7106">
         <v>724</v>
       </c>
-      <c r="J38" t="s" s="5290">
+      <c r="J38" t="s" s="7106">
         <v>716</v>
       </c>
-      <c r="K38" t="s" s="5290">
+      <c r="K38" t="s" s="7106">
         <v>741</v>
       </c>
       <c r="L38" s="183"/>
@@ -20845,19 +23966,19 @@
       <c r="F39" s="195" t="s">
         <v>169</v>
       </c>
-      <c r="G39" t="s" s="5294">
+      <c r="G39" t="s" s="7110">
         <v>796</v>
       </c>
-      <c r="H39" t="s" s="5294">
-        <v>1053</v>
-      </c>
-      <c r="I39" t="s" s="5294">
+      <c r="H39" t="s" s="7110">
+        <v>1084</v>
+      </c>
+      <c r="I39" t="s" s="7110">
         <v>724</v>
       </c>
-      <c r="J39" t="s" s="5294">
+      <c r="J39" t="s" s="7110">
         <v>716</v>
       </c>
-      <c r="K39" t="s" s="5294">
+      <c r="K39" t="s" s="7110">
         <v>742</v>
       </c>
       <c r="L39" s="183"/>
@@ -20882,19 +24003,19 @@
       <c r="F40" s="195" t="s">
         <v>171</v>
       </c>
-      <c r="G40" t="s" s="5298">
+      <c r="G40" t="s" s="7114">
         <v>796</v>
       </c>
-      <c r="H40" t="s" s="5298">
-        <v>1053</v>
-      </c>
-      <c r="I40" t="s" s="5298">
+      <c r="H40" t="s" s="7114">
+        <v>1084</v>
+      </c>
+      <c r="I40" t="s" s="7114">
         <v>724</v>
       </c>
-      <c r="J40" t="s" s="5298">
+      <c r="J40" t="s" s="7114">
         <v>716</v>
       </c>
-      <c r="K40" t="s" s="5298">
+      <c r="K40" t="s" s="7114">
         <v>743</v>
       </c>
       <c r="L40" s="183"/>
@@ -20919,19 +24040,19 @@
       <c r="F41" s="195" t="s">
         <v>173</v>
       </c>
-      <c r="G41" t="s" s="5302">
+      <c r="G41" t="s" s="7118">
         <v>796</v>
       </c>
-      <c r="H41" t="s" s="5302">
-        <v>1053</v>
-      </c>
-      <c r="I41" t="s" s="5302">
+      <c r="H41" t="s" s="7118">
+        <v>1084</v>
+      </c>
+      <c r="I41" t="s" s="7118">
         <v>724</v>
       </c>
-      <c r="J41" t="s" s="5302">
+      <c r="J41" t="s" s="7118">
         <v>716</v>
       </c>
-      <c r="K41" t="s" s="5302">
+      <c r="K41" t="s" s="7118">
         <v>743</v>
       </c>
       <c r="L41" s="109"/>
@@ -20956,20 +24077,20 @@
       <c r="F42" s="195" t="s">
         <v>175</v>
       </c>
-      <c r="G42" t="s" s="5306">
+      <c r="G42" t="s" s="7122">
         <v>796</v>
       </c>
-      <c r="H42" t="s" s="5306">
-        <v>1053</v>
-      </c>
-      <c r="I42" t="s" s="5306">
+      <c r="H42" t="s" s="7122">
+        <v>1084</v>
+      </c>
+      <c r="I42" t="s" s="7122">
         <v>724</v>
       </c>
-      <c r="J42" t="s" s="5306">
+      <c r="J42" t="s" s="7122">
         <v>716</v>
       </c>
-      <c r="K42" t="s" s="5306">
-        <v>1057</v>
+      <c r="K42" t="s" s="7122">
+        <v>1093</v>
       </c>
       <c r="L42" s="109"/>
       <c r="M42" s="15"/>
@@ -20993,20 +24114,20 @@
       <c r="F43" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="G43" t="s" s="5310">
+      <c r="G43" t="s" s="7126">
         <v>796</v>
       </c>
-      <c r="H43" t="s" s="5310">
-        <v>1053</v>
-      </c>
-      <c r="I43" t="s" s="5310">
+      <c r="H43" t="s" s="7126">
+        <v>1084</v>
+      </c>
+      <c r="I43" t="s" s="7126">
         <v>724</v>
       </c>
-      <c r="J43" t="s" s="5310">
+      <c r="J43" t="s" s="7126">
         <v>716</v>
       </c>
-      <c r="K43" t="s" s="5310">
-        <v>977</v>
+      <c r="K43" t="s" s="7126">
+        <v>1060</v>
       </c>
       <c r="L43" s="109"/>
       <c r="M43" s="15"/>
@@ -21032,19 +24153,19 @@
       <c r="F44" s="195" t="s">
         <v>179</v>
       </c>
-      <c r="G44" t="s" s="5314">
+      <c r="G44" t="s" s="7130">
         <v>796</v>
       </c>
-      <c r="H44" t="s" s="5314">
-        <v>1053</v>
-      </c>
-      <c r="I44" t="s" s="5314">
+      <c r="H44" t="s" s="7130">
+        <v>1084</v>
+      </c>
+      <c r="I44" t="s" s="7130">
         <v>724</v>
       </c>
-      <c r="J44" t="s" s="5314">
+      <c r="J44" t="s" s="7130">
         <v>716</v>
       </c>
-      <c r="K44" t="s" s="5314">
+      <c r="K44" t="s" s="7130">
         <v>744</v>
       </c>
       <c r="L44" s="109"/>
@@ -22050,20 +25171,20 @@
       <c r="F80" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="G80" t="s" s="5318">
+      <c r="G80" t="s" s="7134">
         <v>796</v>
       </c>
-      <c r="H80" t="s" s="5318">
-        <v>1053</v>
-      </c>
-      <c r="I80" t="s" s="5318">
+      <c r="H80" t="s" s="7134">
+        <v>1084</v>
+      </c>
+      <c r="I80" t="s" s="7134">
         <v>724</v>
       </c>
-      <c r="J80" t="s" s="5318">
+      <c r="J80" t="s" s="7134">
         <v>716</v>
       </c>
-      <c r="K80" t="s" s="5318">
-        <v>1057</v>
+      <c r="K80" t="s" s="7134">
+        <v>1093</v>
       </c>
       <c r="L80" s="183"/>
       <c r="M80" s="18" t="s">
@@ -22090,20 +25211,20 @@
       <c r="F81" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="G81" t="s" s="5322">
+      <c r="G81" t="s" s="7138">
         <v>796</v>
       </c>
-      <c r="H81" t="s" s="5322">
-        <v>1053</v>
-      </c>
-      <c r="I81" t="s" s="5322">
+      <c r="H81" t="s" s="7138">
+        <v>1084</v>
+      </c>
+      <c r="I81" t="s" s="7138">
         <v>724</v>
       </c>
-      <c r="J81" t="s" s="5322">
+      <c r="J81" t="s" s="7138">
         <v>716</v>
       </c>
-      <c r="K81" t="s" s="5322">
-        <v>1060</v>
+      <c r="K81" t="s" s="7138">
+        <v>1057</v>
       </c>
       <c r="L81" s="184"/>
       <c r="M81" s="18"/>
@@ -22128,20 +25249,20 @@
       <c r="F82" s="180" t="s">
         <v>204</v>
       </c>
-      <c r="G82" t="s" s="5326">
+      <c r="G82" t="s" s="7142">
         <v>796</v>
       </c>
-      <c r="H82" t="s" s="5326">
-        <v>1053</v>
-      </c>
-      <c r="I82" t="s" s="5326">
+      <c r="H82" t="s" s="7142">
+        <v>1084</v>
+      </c>
+      <c r="I82" t="s" s="7142">
         <v>724</v>
       </c>
-      <c r="J82" t="s" s="5326">
+      <c r="J82" t="s" s="7142">
         <v>716</v>
       </c>
-      <c r="K82" t="s" s="5326">
-        <v>837</v>
+      <c r="K82" t="s" s="7142">
+        <v>939</v>
       </c>
       <c r="L82" s="182"/>
       <c r="M82" s="18"/>
@@ -22166,20 +25287,20 @@
       <c r="F83" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="G83" t="s" s="5330">
+      <c r="G83" t="s" s="7146">
         <v>796</v>
       </c>
-      <c r="H83" t="s" s="5330">
-        <v>1053</v>
-      </c>
-      <c r="I83" t="s" s="5330">
+      <c r="H83" t="s" s="7146">
+        <v>1084</v>
+      </c>
+      <c r="I83" t="s" s="7146">
         <v>724</v>
       </c>
-      <c r="J83" t="s" s="5330">
+      <c r="J83" t="s" s="7146">
         <v>716</v>
       </c>
-      <c r="K83" t="s" s="5330">
-        <v>1061</v>
+      <c r="K83" t="s" s="7146">
+        <v>1099</v>
       </c>
       <c r="L83" s="109"/>
       <c r="M83" s="18"/>
@@ -22204,20 +25325,20 @@
       <c r="F84" s="180" t="s">
         <v>204</v>
       </c>
-      <c r="G84" t="s" s="5334">
+      <c r="G84" t="s" s="7150">
         <v>796</v>
       </c>
-      <c r="H84" t="s" s="5334">
-        <v>1053</v>
-      </c>
-      <c r="I84" t="s" s="5334">
+      <c r="H84" t="s" s="7150">
+        <v>1084</v>
+      </c>
+      <c r="I84" t="s" s="7150">
         <v>724</v>
       </c>
-      <c r="J84" t="s" s="5334">
+      <c r="J84" t="s" s="7150">
         <v>716</v>
       </c>
-      <c r="K84" t="s" s="5334">
-        <v>1062</v>
+      <c r="K84" t="s" s="7150">
+        <v>1061</v>
       </c>
       <c r="L84" s="184"/>
       <c r="M84" s="18"/>
@@ -22242,19 +25363,19 @@
       <c r="F85" s="197" t="s">
         <v>183</v>
       </c>
-      <c r="G85" t="s" s="5338">
+      <c r="G85" t="s" s="5934">
         <v>796</v>
       </c>
-      <c r="H85" t="s" s="5338">
+      <c r="H85" t="s" s="5934">
         <v>1053</v>
       </c>
-      <c r="I85" t="s" s="5338">
+      <c r="I85" t="s" s="5934">
         <v>724</v>
       </c>
-      <c r="J85" t="s" s="5338">
+      <c r="J85" t="s" s="5934">
         <v>716</v>
       </c>
-      <c r="K85" t="s" s="5338">
+      <c r="K85" t="s" s="5934">
         <v>721</v>
       </c>
       <c r="L85" s="182"/>
@@ -22282,19 +25403,19 @@
       <c r="F86" s="197" t="s">
         <v>185</v>
       </c>
-      <c r="G86" t="s" s="5342">
+      <c r="G86" t="s" s="5938">
         <v>796</v>
       </c>
-      <c r="H86" t="s" s="5342">
+      <c r="H86" t="s" s="5938">
         <v>1053</v>
       </c>
-      <c r="I86" t="s" s="5342">
+      <c r="I86" t="s" s="5938">
         <v>724</v>
       </c>
-      <c r="J86" t="s" s="5342">
+      <c r="J86" t="s" s="5938">
         <v>716</v>
       </c>
-      <c r="K86" t="s" s="5342">
+      <c r="K86" t="s" s="5938">
         <v>721</v>
       </c>
       <c r="L86" s="184"/>
@@ -22320,19 +25441,19 @@
       <c r="F87" s="197" t="s">
         <v>187</v>
       </c>
-      <c r="G87" t="s" s="5346">
+      <c r="G87" t="s" s="5942">
         <v>796</v>
       </c>
-      <c r="H87" t="s" s="5346">
+      <c r="H87" t="s" s="5942">
         <v>1053</v>
       </c>
-      <c r="I87" t="s" s="5346">
+      <c r="I87" t="s" s="5942">
         <v>724</v>
       </c>
-      <c r="J87" t="s" s="5346">
+      <c r="J87" t="s" s="5942">
         <v>716</v>
       </c>
-      <c r="K87" t="s" s="5346">
+      <c r="K87" t="s" s="5942">
         <v>721</v>
       </c>
       <c r="L87" s="184"/>
@@ -22854,19 +25975,19 @@
       <c r="F101" s="247" t="s">
         <v>103</v>
       </c>
-      <c r="G101" t="s" s="5138">
+      <c r="G101" t="s" s="5966">
         <v>796</v>
       </c>
-      <c r="H101" t="s" s="5138">
-        <v>1053</v>
-      </c>
-      <c r="I101" t="s" s="5138">
+      <c r="H101" t="s" s="5966">
+        <v>1084</v>
+      </c>
+      <c r="I101" t="s" s="5966">
         <v>724</v>
       </c>
-      <c r="J101" t="s" s="5138">
+      <c r="J101" t="s" s="5966">
         <v>716</v>
       </c>
-      <c r="K101" t="s" s="5138">
+      <c r="K101" t="s" s="5966">
         <v>746</v>
       </c>
       <c r="L101" s="182"/>
@@ -22895,19 +26016,19 @@
       <c r="F102" s="250" t="s">
         <v>81</v>
       </c>
-      <c r="G102" t="s" s="5142">
+      <c r="G102" t="s" s="5970">
         <v>796</v>
       </c>
-      <c r="H102" t="s" s="5142">
-        <v>1053</v>
-      </c>
-      <c r="I102" t="s" s="5142">
+      <c r="H102" t="s" s="5970">
+        <v>1084</v>
+      </c>
+      <c r="I102" t="s" s="5970">
         <v>724</v>
       </c>
-      <c r="J102" t="s" s="5142">
+      <c r="J102" t="s" s="5970">
         <v>716</v>
       </c>
-      <c r="K102" t="s" s="5142">
+      <c r="K102" t="s" s="5970">
         <v>713</v>
       </c>
       <c r="L102" s="182"/>
@@ -22934,19 +26055,19 @@
       <c r="F103" s="253" t="s">
         <v>200</v>
       </c>
-      <c r="G103" t="s" s="5146">
+      <c r="G103" t="s" s="5974">
         <v>796</v>
       </c>
-      <c r="H103" t="s" s="5146">
-        <v>1053</v>
-      </c>
-      <c r="I103" t="s" s="5146">
+      <c r="H103" t="s" s="5974">
+        <v>1084</v>
+      </c>
+      <c r="I103" t="s" s="5974">
         <v>724</v>
       </c>
-      <c r="J103" t="s" s="5146">
+      <c r="J103" t="s" s="5974">
         <v>716</v>
       </c>
-      <c r="K103" t="s" s="5146">
+      <c r="K103" t="s" s="5974">
         <v>713</v>
       </c>
       <c r="L103" s="230"/>
